--- a/Weibull_constants_diagonals_vary_Height_alpha=1.xlsx
+++ b/Weibull_constants_diagonals_vary_Height_alpha=1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\1SUTD\0Globalfoundries\0STT-MRAM\Monte-Carlos-MgO-TDDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11004546-69F3-4BC6-AD62-D9926C156F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D1DBD-5306-473C-9CC5-F06A08EE8620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2289,8 +2289,8 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
